--- a/Docs/Design/Eternal War GDC.xlsx
+++ b/Docs/Design/Eternal War GDC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Core system" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Buff" sheetId="2" r:id="rId3"/>
     <sheet name="Settle" sheetId="5" r:id="rId4"/>
     <sheet name="Stats" sheetId="6" r:id="rId5"/>
-    <sheet name="词缀效果" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="词缀效果" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -882,27 +882,6 @@
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">不同的地形决定了当英雄站立在上面时的不同交互；
-1.空地：允许玩家自由行动
-2.障碍物：玩家不可踩在其上；障碍物不会阻挡技能效果的发挥
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.尖刺陷阱：
-①单位可以踩在刺出的尖刺上面，会被扣1点血，然后尖刺收回；
-②单位持续站在尖刺上，尖刺不会再刺出，而是等待单位离开之后的第3个Step后才会重新刺出；</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -981,18 +960,92 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>一些值获得固定提升：
+    <r>
+      <t>一些值获得固定提升：
 1.双方玩家的AP_Max++;
 在重置阶段，恢复一些值到初始值：
 1.双方玩家恢复自己的当前AP到AP_Max；
 2.所有英雄的待冷却技能的CD-1；
 3.所有依据回合存在的单位或者是Trigger\按回合持续的Buff剩余的存在时间-1；
 4.重置所有过期的特殊状态到正常状态
-可拾取物品刷新：
+可拾取物品刷新：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每到这个阶段在这两种拾取物中选择一个刷新出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：
 1.生成一个AP可拾取物，拾取的玩家获得AP_Max的增加，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
 2.生成一个水晶，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
 英雄复活：
 1.死亡的英雄会在这个阶段复活，但是会使其所有技能进入最大CD；复活的英雄随机刷新在出生位置；</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">不同的地形决定了当英雄站立在上面时的不同交互；
+1.空地：允许玩家自由行动
+2.障碍物：玩家不可踩在其上；障碍物不会阻挡技能效果的发挥
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.尖刺陷阱：
+①单位可以踩在刺出的尖刺上面，会被扣1点血，然后尖刺收回；
+②单位持续站在尖刺上，尖刺不会再刺出，而是等待单位离开之后的第4个Step后才会重新刺出；</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇护</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.庇护永久持续，直到受到一次攻击后消失，同时抵挡这次攻击的伤害效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.有层数，每一层抵挡一点所受伤害
+2.仅持续一回合
+3.仅英雄可具有此效果
+4.无法抵挡【中毒】伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牵引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1195,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1272,6 +1325,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1302,11 +1362,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="差" xfId="1" builtinId="27" customBuiltin="1"/>
@@ -1664,14 +1734,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1781,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1722,7 +1792,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
@@ -1731,7 +1801,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="231" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="9" t="s">
         <v>78</v>
       </c>
@@ -1740,7 +1810,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="9" t="s">
         <v>62</v>
       </c>
@@ -1749,19 +1819,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
+      <c r="B7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="9" t="s">
         <v>67</v>
       </c>
@@ -1770,7 +1840,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="9" t="s">
         <v>68</v>
       </c>
@@ -1779,7 +1849,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="16" t="s">
         <v>69</v>
       </c>
@@ -1788,7 +1858,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="9" t="s">
         <v>75</v>
       </c>
@@ -1797,119 +1867,116 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" ht="379.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" ht="379.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-    </row>
-    <row r="19" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>117</v>
+    <row r="21" spans="2:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="281.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="281.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
-      <c r="C25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1925,7 +1992,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1963,7 +2030,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1972,48 +2039,48 @@
       <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="29"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -2028,34 +2095,34 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="32"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
@@ -2068,7 +2135,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="33" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2083,7 +2150,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="11" t="s">
         <v>86</v>
       </c>
@@ -2096,7 +2163,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="11" t="s">
         <v>87</v>
       </c>
@@ -2109,7 +2176,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="11" t="s">
         <v>88</v>
       </c>
@@ -2122,7 +2189,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="11" t="s">
         <v>89</v>
       </c>
@@ -2135,7 +2202,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="11" t="s">
         <v>90</v>
       </c>
@@ -2148,7 +2215,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="11" t="s">
         <v>91</v>
       </c>
@@ -2159,7 +2226,7 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="11" t="s">
         <v>92</v>
       </c>
@@ -2170,7 +2237,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11">
         <v>9</v>
@@ -2181,7 +2248,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11">
         <v>10</v>
@@ -2192,7 +2259,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11">
         <v>11</v>
@@ -2203,7 +2270,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="30" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -2223,7 +2290,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="7" t="s">
         <v>95</v>
       </c>
@@ -2241,19 +2308,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2263,12 +2330,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
@@ -2276,10 +2343,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="7" t="s">
         <v>19</v>
       </c>
@@ -2287,10 +2354,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="29"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
@@ -2298,14 +2365,14 @@
         <v>3</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="30"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2315,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="29"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
@@ -2326,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="29"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -2341,7 +2408,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="8" t="s">
         <v>45</v>
       </c>
@@ -2351,7 +2418,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -2366,7 +2433,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="18" t="s">
         <v>99</v>
       </c>
@@ -2376,52 +2443,52 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="30"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="A42" s="31"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="31"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+      <c r="A44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="31"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
+      <c r="A48" s="31"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="31"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
+      <c r="A50" s="31"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="31"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
+      <c r="A52" s="31"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
+      <c r="A53" s="31"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
+      <c r="A54" s="31"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
+      <c r="A55" s="31"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
+      <c r="A56" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2452,7 +2519,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2536,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2480,7 +2547,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
@@ -2489,7 +2556,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
@@ -2498,7 +2565,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>43</v>
       </c>
@@ -2507,67 +2574,67 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="35"/>
     </row>
     <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="35"/>
     </row>
     <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="35"/>
     </row>
     <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="35"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="35"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="35"/>
     </row>
     <row r="15" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="35"/>
     </row>
     <row r="16" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="35"/>
     </row>
     <row r="17" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="35"/>
     </row>
     <row r="18" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="35"/>
     </row>
     <row r="19" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="35"/>
     </row>
     <row r="20" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="35"/>
     </row>
     <row r="21" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="35"/>
     </row>
     <row r="22" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="35"/>
     </row>
     <row r="23" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="35"/>
     </row>
     <row r="24" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2594,37 +2661,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="38" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37" t="s">
         <v>157</v>
       </c>
       <c r="C5" t="s">
@@ -2632,64 +2699,64 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
       <c r="C6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
       <c r="C7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
       <c r="C8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
       <c r="C9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
       <c r="C10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
       <c r="C11" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
       <c r="C12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
       <c r="C13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
@@ -2713,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2744,10 +2811,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>120</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2755,34 +2822,34 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2796,8 +2863,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="14" t="s">
         <v>112</v>
       </c>
@@ -2809,8 +2876,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="20" t="s">
         <v>113</v>
       </c>
@@ -2822,8 +2889,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="20" t="s">
         <v>134</v>
       </c>
@@ -2835,8 +2902,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="20" t="s">
         <v>136</v>
       </c>
@@ -2848,8 +2915,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="20" t="s">
         <v>151</v>
       </c>
@@ -2861,14 +2928,14 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="29"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="29"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
@@ -2896,53 +2963,88 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="26"/>
     <col min="2" max="2" width="91.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="37" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:2" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="26" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="26" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="26" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="26" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="42" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Design/Eternal War GDC.xlsx
+++ b/Docs/Design/Eternal War GDC.xlsx
@@ -11,9 +11,14 @@
     <sheet name="Flag" sheetId="1" r:id="rId2"/>
     <sheet name="Buff" sheetId="2" r:id="rId3"/>
     <sheet name="Settle" sheetId="5" r:id="rId4"/>
-    <sheet name="Stats" sheetId="6" r:id="rId5"/>
-    <sheet name="词缀效果" sheetId="7" r:id="rId6"/>
+    <sheet name="Stats" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="词缀效果">[1]词缀效果!$A$2:$A$14</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -55,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="165">
   <si>
     <t>Name</t>
   </si>
@@ -858,30 +863,6 @@
   </si>
   <si>
     <t>被动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉默</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -956,47 +937,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1.设置英雄出生位置（=出生位置）：玩家逐一选择三个英雄分布在允许的出生位置（这个位置是每个地图预先配置好的）；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>一些值获得固定提升：
-1.双方玩家的AP_Max++;
-在重置阶段，恢复一些值到初始值：
-1.双方玩家恢复自己的当前AP到AP_Max；
-2.所有英雄的待冷却技能的CD-1；
-3.所有依据回合存在的单位或者是Trigger\按回合持续的Buff剩余的存在时间-1；
-4.重置所有过期的特殊状态到正常状态
-可拾取物品刷新：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每到这个阶段在这两种拾取物中选择一个刷新出来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：
-1.生成一个AP可拾取物，拾取的玩家获得AP_Max的增加，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
-2.生成一个水晶，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
-英雄复活：
-1.死亡的英雄会在这个阶段复活，但是会使其所有技能进入最大CD；复活的英雄随机刷新在出生位置；</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">不同的地形决定了当英雄站立在上面时的不同交互；
 1.空地：允许玩家自由行动
@@ -1022,30 +962,66 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>格挡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>庇护</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.庇护永久持续，直到受到一次攻击后消失，同时抵挡这次攻击的伤害效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.有层数，每一层抵挡一点所受伤害
-2.仅持续一回合
-3.仅英雄可具有此效果
-4.无法抵挡【中毒】伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牵引</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>击退</t>
+    <r>
+      <t>一些值获得固定提升：
+1.双方玩家的AP_Max++;
+在重置阶段，恢复一些值到初始值：
+1.双方玩家恢复自己的当前AP到AP_Max；
+2.所有英雄的待冷却技能的CD-1；
+3.所有依据回合存在的单位或者是Trigger\按回合持续的Buff剩余的存在时间-1；
+4.重置所有过期的特殊状态到正常状态
+可拾取物品刷新：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每到这个阶段在这两种拾取物中选择一个刷新出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：
+1.生成一个AP可拾取物，拾取的玩家获得AP_Max的增加，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；（当目前时间轴已经达到20step，则不会再生成AP拾取物）
+2.生成一个水晶，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
+英雄复活：
+1.死亡的英雄会在这个阶段复活，但是会使其所有技能进入最大CD；复活的英雄随机刷新在出生位置；</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.设置英雄出生位置（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=出生位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：玩家逐一选择三个英雄分布在允许的出生位置（这个位置是每个地图预先配置好的）；</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1053,7 +1029,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1175,17 +1151,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1228,12 +1195,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1248,7 +1209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1325,57 +1286,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1407,7 +1352,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1445,6 +1390,103 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="战棋模拟"/>
+      <sheetName val="特殊技能机制"/>
+      <sheetName val="典型技能范围"/>
+      <sheetName val="设计约定"/>
+      <sheetName val="技能体系"/>
+      <sheetName val="词缀效果"/>
+      <sheetName val="技能范围"/>
+      <sheetName val="技能表"/>
+      <sheetName val="英雄表"/>
+      <sheetName val="备用数据"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>减速</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>眩晕</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>沉默</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>治疗</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>伤害</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>净化</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>庇护</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>格挡</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>中毒</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>牵引</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>击退</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>闪烁</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>易伤</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1741,12 +1783,13 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="8.88671875" style="27"/>
     <col min="3" max="3" width="16.6640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="91.21875" style="15" customWidth="1"/>
     <col min="5" max="5" width="68" style="9" customWidth="1"/>
@@ -1781,7 +1824,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="34" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1792,7 +1835,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
@@ -1801,7 +1844,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="231" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="9" t="s">
         <v>78</v>
       </c>
@@ -1810,7 +1853,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="9" t="s">
         <v>62</v>
       </c>
@@ -1818,20 +1861,20 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
       <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="34"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="34"/>
       <c r="C8" s="9" t="s">
         <v>67</v>
       </c>
@@ -1840,7 +1883,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="9" t="s">
         <v>68</v>
       </c>
@@ -1849,7 +1892,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="16" t="s">
         <v>69</v>
       </c>
@@ -1858,7 +1901,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="9" t="s">
         <v>75</v>
       </c>
@@ -1867,45 +1910,45 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="379.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
     </row>
     <row r="18" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -1916,7 +1959,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="9" t="s">
         <v>58</v>
       </c>
@@ -1925,18 +1968,18 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>117</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="9" t="s">
         <v>59</v>
       </c>
@@ -1945,7 +1988,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="9" t="s">
         <v>60</v>
       </c>
@@ -1954,7 +1997,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="9" t="s">
         <v>61</v>
       </c>
@@ -1962,13 +2005,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="281.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+    <row r="24" spans="2:4" ht="340.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
       <c r="C24" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2073,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2039,48 +2082,48 @@
       <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -2095,34 +2138,34 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="31"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2178,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2150,7 +2193,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="11" t="s">
         <v>86</v>
       </c>
@@ -2163,7 +2206,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="11" t="s">
         <v>87</v>
       </c>
@@ -2176,7 +2219,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="11" t="s">
         <v>88</v>
       </c>
@@ -2189,7 +2232,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="11" t="s">
         <v>89</v>
       </c>
@@ -2202,7 +2245,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="11" t="s">
         <v>90</v>
       </c>
@@ -2215,7 +2258,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="11" t="s">
         <v>91</v>
       </c>
@@ -2226,7 +2269,7 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="11" t="s">
         <v>92</v>
       </c>
@@ -2237,7 +2280,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11">
         <v>9</v>
@@ -2248,7 +2291,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11">
         <v>10</v>
@@ -2259,7 +2302,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11">
         <v>11</v>
@@ -2270,7 +2313,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -2290,7 +2333,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="7" t="s">
         <v>95</v>
       </c>
@@ -2308,19 +2351,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="29"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="29"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="29"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2330,12 +2373,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
@@ -2343,10 +2386,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="32"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="7" t="s">
         <v>19</v>
       </c>
@@ -2354,10 +2397,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="32"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
@@ -2365,14 +2408,14 @@
         <v>3</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="32"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="29"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2382,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
@@ -2393,10 +2436,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="32"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>97</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -2408,7 +2451,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="8" t="s">
         <v>45</v>
       </c>
@@ -2418,7 +2461,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -2433,7 +2476,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="18" t="s">
         <v>99</v>
       </c>
@@ -2443,52 +2486,52 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="29"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
+      <c r="A42" s="30"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="A43" s="30"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
+      <c r="A44" s="30"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
+      <c r="A45" s="30"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
+      <c r="A46" s="30"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
+      <c r="A47" s="30"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
+      <c r="A48" s="30"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
+      <c r="A49" s="30"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
+      <c r="A50" s="30"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
+      <c r="A51" s="30"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
+      <c r="A52" s="30"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
+      <c r="A53" s="30"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
+      <c r="A54" s="30"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
+      <c r="A55" s="30"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
+      <c r="A56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2519,7 +2562,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -2536,7 +2579,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2547,7 +2590,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
@@ -2556,7 +2599,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
@@ -2565,7 +2608,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="14" t="s">
         <v>43</v>
       </c>
@@ -2574,67 +2617,67 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
     </row>
     <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="34"/>
     </row>
     <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
     </row>
     <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="34"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="34"/>
     </row>
     <row r="15" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="34"/>
     </row>
     <row r="16" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
     </row>
     <row r="17" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
     </row>
     <row r="18" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
     </row>
     <row r="19" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="34"/>
     </row>
     <row r="20" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="34"/>
     </row>
     <row r="21" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="34"/>
     </row>
     <row r="22" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="34"/>
     </row>
     <row r="23" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="34"/>
     </row>
     <row r="24" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2648,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2661,37 +2704,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
         <v>157</v>
       </c>
       <c r="C5" t="s">
@@ -2699,75 +2742,82 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
       <c r="C7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="B5:B15"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A2:A15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2781,7 +2831,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2811,10 +2861,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>120</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2822,34 +2872,34 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2863,8 +2913,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="14" t="s">
         <v>112</v>
       </c>
@@ -2876,8 +2926,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="20" t="s">
         <v>113</v>
       </c>
@@ -2889,8 +2939,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="20" t="s">
         <v>134</v>
       </c>
@@ -2902,8 +2952,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="20" t="s">
         <v>136</v>
       </c>
@@ -2915,8 +2965,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="20" t="s">
         <v>151</v>
       </c>
@@ -2928,14 +2978,14 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
@@ -2959,96 +3009,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="2" width="91.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Docs/Design/Eternal War GDC.xlsx
+++ b/Docs/Design/Eternal War GDC.xlsx
@@ -177,181 +177,181 @@
   </si>
   <si>
     <t>叠加效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>仅叠加值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>仅叠加值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>isExistByTurn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>isRepeated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>未开始</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>进行中</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表现相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>胜利条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>游戏流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>条件1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>条件2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>游戏回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部署阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>结算阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基地</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>行动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基础概念与设定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AP
 （ActionPoint）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包括玩家所有的基地、英雄、召唤物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>单位（Unit）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>召唤物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>位移</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>效果结算优先级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>定义：
 某些英雄的技能会在战场创造新单位，被称为该英雄的召唤物；本质上召唤物属于英雄类，但是不会被玩家直接控制；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>作为技能效果的直接载体，buff会被挂载到英雄身上，在时间条件、和buff生效条件满足之后触发其效果；有些Buff则会在时间上立即生效，比如直接攻击的buff，造成敌对势力单位HP降低；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>buff
 影响的属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>水晶（Crystal）</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Step（Step）</t>
@@ -359,11 +359,11 @@
   <si>
     <t>WinType
 胜利条件枚举</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>camp_opponent</t>
@@ -392,80 +392,80 @@
   <si>
     <t xml:space="preserve"> SkillEffectTypes
 决定了buff影响的属性类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EnableEffectTypes
 决定了trigger或者buff是否生效的判断条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>isRepeated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SkillTrigger
 这两个属性影响到trigger的运作方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>buff
 这些属性影响到了buff的运作方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AlllKilled</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EnoughCrysital</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>All the opposite heros been killed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>行动力:
 1.每个玩家控制的所有英雄共用一个AP池；
 2.英雄的每个行动都会消耗AP；
 3.玩家中，所持AP的最大值=下一个部署阶段时间窗的step数；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>重置阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>由于游戏的机制是对战的敌我双方同时部署，同时结算，所以不存在玩家之间的轮流行动。在游戏开始时也不存在起始玩家，而是双方玩家同时部署，然后同时进入结算。游戏的回合就在 部署》结算》重置 这3个阶段不停循环，直到某一方胜利；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>HP</t>
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Stats</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MovingPoint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MovingPoint_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Hero</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>isStuned</t>
@@ -475,43 +475,39 @@
   </si>
   <si>
     <t>isSlowed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄被减速的标志，只要英雄当前移动力小于其最大移动力时，英雄处于减速状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄是否处于被沉默的状态标志，沉默时英雄不能释放任何主动技能（可以移动）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在结算阶段，击杀对方所有单位，则己方胜利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>起始设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>二级分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基础英雄属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>被眩晕的英雄将直接跳过本回合的部署阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄异常状态标志位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -561,7 +557,7 @@
       <t xml:space="preserve">）
 </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -588,7 +584,7 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -615,7 +611,7 @@
       </rPr>
       <t>）；</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -641,31 +637,31 @@
       </rPr>
       <t>，这是个全局设置），且超过对方水晶数时，己方胜利；</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在其他单位身上创生一个Buff，可以联想到闪电链，或者是瘟疫传递</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MovingPoint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是否眩晕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是否沉默</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是否减速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>地形</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -740,88 +736,88 @@
 水晶储存：
 水晶可以因为一些的技能被储存至我方水晶或召唤物身上，以使我方持有的水晶更安全；</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>isVulnerable</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是否易伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>isProtected</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是否庇护</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>处于被庇护的英雄，可以阻挡一次任意一次攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>处于易伤的英雄，每次受到伤害都会被附加一点格外伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>沉默</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>减速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>眩晕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>易伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>庇护</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.双方玩家同时开始设置自己控制存在场上的所有英雄的行动序列，这个过程类似于在动画时间轴上添加关键帧。英雄的移动和技能释放会消耗AP与Step数（就是被分块化的时间）。等双方都确认部署完毕则进入下一阶段；
 2.值得注意的是部署阶段，时间轴的长度取决于双方玩家所持的最大AP值，每个值对应一个Step；玩家可以在时间轴的任意位置部署任意行动，但是行动的发生都不能超出时间轴；
 3.部署阶段，任何行动消耗AP是直接被消耗；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MovingPoint_Max</t>
   </si>
   <si>
     <t>是否中毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>处于中毒状态的英雄：每回合扣一点HP，同时移除一层中毒标记，直到中毒标记消失，中毒效果消除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>isPoisioned</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MovingPoint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -851,19 +847,19 @@
 4.基地可以有庇护效果，但无其他特殊效果
 5.基地只会被普通攻击造成伤害</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主动效果满足则发动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>顺序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>被动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -889,11 +885,11 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄可由玩家操控的的任何操作被称为行动，行动消耗AP与Step（时间）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -934,7 +930,7 @@
 5.触发条件：这个条件决定了接下来的阶段是否使技能生效；
 这里分两个触发条件（因为本质上技能释放的时间和技能效果生效的时间很可能不是一个时间，因此要分两阶段）：一个是触发器的，决定了此触发器对应的buff效果是否可能会挂载到某英雄身上；另一个是buff的触发条件，这决定了被挂载了这个buff英雄是否会在此刻受到这个buff的影响；</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -955,11 +951,11 @@
 ①单位可以踩在刺出的尖刺上面，会被扣1点血，然后尖刺收回；
 ②单位持续站在尖刺上，尖刺不会再刺出，而是等待单位离开之后的第4个Step后才会重新刺出；</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -996,7 +992,7 @@
 英雄复活：
 1.死亡的英雄会在这个阶段复活，但是会使其所有技能进入最大CD；复活的英雄随机刷新在出生位置；</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1022,20 +1018,53 @@
       </rPr>
       <t>）：玩家逐一选择三个英雄分布在允许的出生位置（这个位置是每个地图预先配置好的）；</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在结算阶段的任意一个步骤，击杀对方所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英雄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则己方胜利</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1207,120 +1236,123 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1779,11 +1811,11 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1824,18 +1856,18 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
@@ -1844,37 +1876,37 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="231" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="9" t="s">
         <v>67</v>
       </c>
@@ -1883,16 +1915,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="16" t="s">
         <v>69</v>
       </c>
@@ -1901,7 +1933,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="9" t="s">
         <v>75</v>
       </c>
@@ -1910,76 +1942,76 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="379.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
+      <c r="B16" s="28"/>
     </row>
     <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>117</v>
-      </c>
       <c r="D20" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="9" t="s">
         <v>59</v>
       </c>
@@ -1988,30 +2020,30 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="340.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2021,7 +2053,7 @@
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="B18:B19"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2174,7 +2206,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2550,7 +2582,7 @@
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A33"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2579,18 +2611,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
@@ -2599,7 +2631,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
@@ -2608,7 +2640,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="14" t="s">
         <v>43</v>
       </c>
@@ -2617,73 +2649,73 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="28"/>
     </row>
     <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="28"/>
     </row>
     <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="28"/>
     </row>
     <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="28"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="28"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="28"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="15" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="28"/>
     </row>
     <row r="16" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="28"/>
     </row>
     <row r="17" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="28"/>
     </row>
     <row r="18" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="28"/>
     </row>
     <row r="19" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="28"/>
     </row>
     <row r="20" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="28"/>
     </row>
     <row r="21" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="28"/>
     </row>
     <row r="22" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="28"/>
     </row>
     <row r="23" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="28"/>
     </row>
     <row r="24" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A24"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2704,111 +2736,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>155</v>
       </c>
+      <c r="B2" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36" t="s">
-        <v>157</v>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35" t="s">
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" t="s">
-        <v>145</v>
-      </c>
-    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
       <c r="C14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2851,7 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A2:A15"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2848,7 +2880,7 @@
         <v>104</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>79</v>
@@ -2861,131 +2893,131 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>120</v>
+      <c r="B2" s="37" t="s">
+        <v>119</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>122</v>
+      <c r="B7" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="37"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
@@ -3006,7 +3038,7 @@
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B13"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docs/Design/Eternal War GDC.xlsx
+++ b/Docs/Design/Eternal War GDC.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -177,181 +177,181 @@
   </si>
   <si>
     <t>叠加效果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>仅叠加值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>无效</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>仅叠加值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AP_Max</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>isExistByTurn</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>isRepeated</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>未开始</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>进行中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表现相关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>战斗系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>胜利条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>游戏流程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>条件1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>条件2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>游戏回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>部署阶段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>结算阶段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>基地</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>行动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>基础概念与设定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AP
 （ActionPoint）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>包括玩家所有的基地、英雄、召唤物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>单位（Unit）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>英雄</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>召唤物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>位移</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>效果结算优先级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>技能效果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>定义：
 某些英雄的技能会在战场创造新单位，被称为该英雄的召唤物；本质上召唤物属于英雄类，但是不会被玩家直接控制；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>作为技能效果的直接载体，buff会被挂载到英雄身上，在时间条件、和buff生效条件满足之后触发其效果；有些Buff则会在时间上立即生效，比如直接攻击的buff，造成敌对势力单位HP降低；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>buff
 影响的属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>水晶（Crystal）</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Step（Step）</t>
@@ -359,11 +359,11 @@
   <si>
     <t>WinType
 胜利条件枚举</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AP_Max</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>camp_opponent</t>
@@ -392,80 +392,73 @@
   <si>
     <t xml:space="preserve"> SkillEffectTypes
 决定了buff影响的属性类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EnableEffectTypes
 决定了trigger或者buff是否生效的判断条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>isRepeated</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SkillTrigger
 这两个属性影响到trigger的运作方式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>buff
 这些属性影响到了buff的运作方式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AlllKilled</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EnoughCrysital</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>All the opposite heros been killed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动力:
-1.每个玩家控制的所有英雄共用一个AP池；
-2.英雄的每个行动都会消耗AP；
-3.玩家中，所持AP的最大值=下一个部署阶段时间窗的step数；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>重置阶段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>由于游戏的机制是对战的敌我双方同时部署，同时结算，所以不存在玩家之间的轮流行动。在游戏开始时也不存在起始玩家，而是双方玩家同时部署，然后同时进入结算。游戏的回合就在 部署》结算》重置 这3个阶段不停循环，直到某一方胜利；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HP</t>
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Hero_Stats</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MovingPoint</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MovingPoint_Max</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Hero</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>isStuned</t>
@@ -475,55 +468,53 @@
   </si>
   <si>
     <t>isSlowed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>英雄被减速的标志，只要英雄当前移动力小于其最大移动力时，英雄处于减速状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>英雄是否处于被沉默的状态标志，沉默时英雄不能释放任何主动技能（可以移动）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>起始设置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>二级分类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>基础英雄属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>被眩晕的英雄将直接跳过本回合的部署阶段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>英雄异常状态标志位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>基础：
-唯一一类可以直接由玩家操控的单位，用于释放主动技能；
-1.英雄属性：（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>详见Stats页</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在重置阶段时，己方所有单位持有的水晶数量总和到达：胜利所需水晶数（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Crystal_Win</t>
     </r>
     <r>
       <rPr>
@@ -533,291 +524,108 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>）
-2.英雄的异常状态：处于异常状态的英雄，会影响英雄的一些属性，被屏蔽一些功能。比如被沉默的英雄不能释放攻击技能；（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>详见Buff页：Hero:英雄异常状态标志位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>整个游戏还是基于回合制的；
-在部署阶段，时间轴被切分成了若干个Step，每个Step也就是游戏中最小的时间单位（类似于帧）；（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>详见本来页：部署阶段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>依据双方玩家对每个英雄的行动部署，按Step结算每一个行动的影响。这些影响里面包含了伤害结算、水晶的持有者/持有数量改变、水晶掉落、游戏结束判定；
-但是里面有一个效果结算顺序（效果细分可以分很多种，还需要考虑到特殊效果）的问题，（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>详细参见Settle页</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）；</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在重置阶段时，己方所有单位持有的水晶数量总和到达：胜利所需水晶数（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Crystal_Win</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>，这是个全局设置），且超过对方水晶数时，己方胜利；</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>在其他单位身上创生一个Buff，可以联想到闪电链，或者是瘟疫传递</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MovingPoint</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是否眩晕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是否沉默</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是否减速</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>地形</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>作为胜利条件：
-某一玩家的所有单位所持有的水晶数合作为胜利条件之一（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>详见本页：胜利条件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）；
-击杀回报：
-1.击杀英雄时会立即获得固定数量的水晶回报，增加固定数额水晶：击杀回报水晶（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Crystal_Kill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，这是一个游戏全局统一值）; 注意这里的达成击杀英雄单位可能不是唯一的，例如：两个英雄同时在一个Step内对同一英雄造成伤害而形成击杀，这种情况两个英雄都能获得击杀回报；任何英雄的召唤物或者技能造成的伤害都视作是该英雄造成的伤害；
-2.被击杀的英雄还会在原地掉落固定数额的水晶（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Crystal_Be_Killed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，这个值是每个英雄都不同）；
-3.被击杀的英雄会在原地掉落他当前所持有的全部水晶；
-水晶拾取：
-每个英雄都有拾取水晶的技能，这个技能消耗Step数，不消耗AP；
-水晶储存：
-水晶可以因为一些的技能被储存至我方水晶或召唤物身上，以使我方持有的水晶更安全；</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>isVulnerable</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是否易伤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>isProtected</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是否庇护</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>处于被庇护的英雄，可以阻挡一次任意一次攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>处于易伤的英雄，每次受到伤害都会被附加一点格外伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>沉默</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>减速</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>眩晕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>易伤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>庇护</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.双方玩家同时开始设置自己控制存在场上的所有英雄的行动序列，这个过程类似于在动画时间轴上添加关键帧。英雄的移动和技能释放会消耗AP与Step数（就是被分块化的时间）。等双方都确认部署完毕则进入下一阶段；
-2.值得注意的是部署阶段，时间轴的长度取决于双方玩家所持的最大AP值，每个值对应一个Step；玩家可以在时间轴的任意位置部署任意行动，但是行动的发生都不能超出时间轴；
-3.部署阶段，任何行动消耗AP是直接被消耗；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AP_Max</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MovingPoint_Max</t>
   </si>
   <si>
     <t>是否中毒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>处于中毒状态的英雄：每回合扣一点HP，同时移除一层中毒标记，直到中毒标记消失，中毒效果消除</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>isPoisioned</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MovingPoint</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>主动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -847,19 +655,19 @@
 4.基地可以有庇护效果，但无其他特殊效果
 5.基地只会被普通攻击造成伤害</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>主动效果满足则发动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>顺序</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>被动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -885,16 +693,453 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>英雄可由玩家操控的的任何操作被称为行动，行动消耗AP与Step（时间）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">不同的地形决定了当英雄站立在上面时的不同交互；
+1.空地：允许玩家自由行动
+2.障碍物：玩家不可踩在其上；障碍物不会阻挡技能效果的发挥
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.尖刺陷阱：
+①单位可以踩在刺出的尖刺上面，会被扣1点血，然后尖刺收回；
+②单位持续站在尖刺上，尖刺不会再刺出，而是等待单位离开之后的第4个Step后才会重新刺出；</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.设置英雄出生位置（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=出生位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：玩家逐一选择三个英雄分布在允许的出生位置（这个位置是每个地图预先配置好的）；</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在结算阶段的任意一个步骤，击杀对方所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英雄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则己方胜利</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>整个游戏还是基于回合制的；
+在部署阶段，时间轴被切分成了1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个Step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(这个值后面可能会调整，但是时间轴长度在游戏整场都持续不变)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，每个Step也就是游戏中最小的时间单位（类似于帧）；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详见本来页：部署阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.双方玩家同时开始设置自己控制存在场上的所有英雄的行动序列，这个过程类似于在动画时间轴上添加关键帧。英雄的移动和技能释放会消耗AP与Step数（就是被分块化的时间）。等双方都确认部署完毕则进入下一阶段；
+2.值得注意的是部署阶段，玩家可以在时间轴的任意位置部署任意行动，但是行动的发生都不能超出时间轴；
+3.部署阶段，任何行动消耗AP是直接被消耗；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在结算行动，游戏画面中的应该是显示出所有在场6个英雄的当前步骤的行动ICON，每个玩家都能看到对方当前步骤的行动；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基础：
+唯一一类可以直接由玩家操控的单位，用于释放主动技能；
+英雄也视为障碍物的一种；
+1.英雄属性：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详见Stats页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+2.英雄的异常状态：处于异常状态的英雄，会影响英雄的一些属性，被屏蔽一些功能。比如被沉默的英雄不能释放攻击技能；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详见Buff页：Hero:英雄异常状态标志位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>作为胜利条件：
+某一玩家的所有单位所持有的水晶数合作为胜利条件之一（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详见本页：胜利条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）；
+击杀回报：
+1.击杀英雄时会立即获得固定数量的水晶回报，增加固定数额水晶：击杀回报水晶（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Crystal_Kill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这是一个游戏全局统一值）; 注意这里的达成击杀英雄单位可能不是唯一的，例如：两个英雄同时在一个Step内对同一英雄造成伤害而形成击杀，这种情况两个英雄都能获得击杀回报；任何英雄的召唤物或者技能造成的伤害都视作是该英雄造成的伤害；
+2.被击杀的英雄还会在原地掉落固定数额的水晶（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Crystal_Be_Killed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这个值是每个英雄都不同）；
+3.被击杀的英雄会在原地掉落他当前所持有的全部水晶；
+水晶拾取：
+每个英雄都有拾取水晶的技能，这个技能消耗Step数，不消耗AP；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水晶不视为障碍物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；
+水晶储存：
+水晶可以因为一些的技能被储存至我方水晶或召唤物身上，以使我方持有的水晶更安全；</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">行动力:
+1.每个玩家控制的所有英雄共用一个AP池；
+2.英雄的每个行动都会消耗AP；
+3.玩家中，所持AP的最大值=下一个部署阶段时间窗的step数；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.AP_Max是当前玩家的AP最大值；
+5.AP_Increase_Limit是玩家通过任何方式能达到的AP_Max值的最值；</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一些值获得固定提升：
+1.双方玩家的AP_Max++;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是如果某一玩家的AP_Max达到20，则不为其增加；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+在重置阶段，恢复一些值到初始值：
+1.双方玩家恢复自己的当前AP到AP_Max；
+2.所有英雄的待冷却技能的CD-1；
+3.所有依据回合存在的单位或者是Trigger\按回合持续的Buff剩余的存在时间-1；
+4.重置所有过期的特殊状态到正常状态
+可拾取物品刷新：（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每到这个阶段在这两种拾取物中轮流刷新出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+1.生成一个AP可拾取物到设置的位置（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AP_Max_Increment_Posi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），拾取的玩家获得AP_Max的增加（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是如果拾取的玩家的AP_Max如果已经达到AP_Increase_Limit，则这次拾取并不会增加其AP_Max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）；如果这个位置此时已经被任意单位占据，则不会再生成这个拾取物；
+2.生成一个水晶，到设置的位置（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Crystal_Increment_Posi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
+英雄复活：
+1.死亡的英雄会在这个阶段复活，但是会使其所有技能进入最大CD；复活的英雄随机刷新在出生位置；</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>基础行动：（每个英雄都有的一类行动，不算作技能，因此不会被沉默所影响）
-1.四方向移动，每次移动一格，每次消耗1Step1AP；CD0; （不会被沉默影响）
+1.四方向移动，每次移动一格，每次消耗1Step、1AP；CD0; （不会被沉默影响）（不能向障碍物，英雄，召唤物等实体所占据的方格移动）
 2.存储/拾取水晶，每次消耗2Step1AP；CD1; （不会被沉默影响）
 3.普通攻击，耗费一个Step2AP；CD0;（这一条会因英雄不同而不同）
 英雄技能：
@@ -930,13 +1175,70 @@
 5.触发条件：这个条件决定了接下来的阶段是否使技能生效；
 这里分两个触发条件（因为本质上技能释放的时间和技能效果生效的时间很可能不是一个时间，因此要分两阶段）：一个是触发器的，决定了此触发器对应的buff效果是否可能会挂载到某英雄身上；另一个是buff的触发条件，这决定了被挂载了这个buff英雄是否会在此刻受到这个buff的影响；</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">不同的地形决定了当英雄站立在上面时的不同交互；
-1.空地：允许玩家自由行动
-2.障碍物：玩家不可踩在其上；障碍物不会阻挡技能效果的发挥
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.依据双方玩家对每个英雄的行动部署，玩家开始逐个选择（虽然是逐个选择的，但是实际上结算行动时是同时的，只不过行动的效果有优先级顺序）这些行动的具体效果（比如，如果是结算移动，则选择方向；如果是技能，则只有发出的第一个步骤可以选择其释放方向），玩家可以在这时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前英雄的行动（但不能取消已经发出了的行动），按Step结算每一个行动的影响。这些影响里面包含了伤害结算、水晶的持有者/持有数量改变、水晶掉落、游戏结束判定；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.效果结算优先级顺序：（效果细分可以分很多种，还需要考虑到特殊效果），（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详细参见Settle页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）；
 </t>
     </r>
     <r>
@@ -947,56 +1249,18 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3.尖刺陷阱：
-①单位可以踩在刺出的尖刺上面，会被扣1点血，然后尖刺收回；
-②单位持续站在尖刺上，尖刺不会再刺出，而是等待单位离开之后的第4个Step后才会重新刺出；</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>中毒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>一些值获得固定提升：
-1.双方玩家的AP_Max++;
-在重置阶段，恢复一些值到初始值：
-1.双方玩家恢复自己的当前AP到AP_Max；
-2.所有英雄的待冷却技能的CD-1；
-3.所有依据回合存在的单位或者是Trigger\按回合持续的Buff剩余的存在时间-1；
-4.重置所有过期的特殊状态到正常状态
-可拾取物品刷新：</t>
-    </r>
-    <r>
-      <rPr>
+      <t>3.行动合法性：如果在进行行动结算时，因为碰撞（可能的多个实体对象占据同一格的情况）、沉默、眩晕、牵引等效果，使当前行动的结算不合法时，这个行动等同于被玩家</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>每到这个阶段在这两种拾取物中选择一个刷新出来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：
-1.生成一个AP可拾取物，拾取的玩家获得AP_Max的增加，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；（当目前时间轴已经达到20step，则不会再生成AP拾取物）
-2.生成一个水晶，到设置的位置；如果设置的位置此时已经被任意单位占据，则不会再生成这个拾取物；
-英雄复活：
-1.死亡的英雄会在这个阶段复活，但是会使其所有技能进入最大CD；复活的英雄随机刷新在出生位置；</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.设置英雄出生位置（</t>
+      <t>取消执行</t>
     </r>
     <r>
       <rPr>
@@ -1006,58 +1270,36 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>=出生位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）：玩家逐一选择三个英雄分布在允许的出生位置（这个位置是每个地图预先配置好的）；</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在结算阶段的任意一个步骤，击杀对方所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英雄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，则己方胜利</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1180,6 +1422,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1236,26 +1486,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1264,10 +1514,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1276,79 +1526,94 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1428,7 +1693,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="战棋模拟"/>
+      <sheetName val="基础数值"/>
       <sheetName val="特殊技能机制"/>
       <sheetName val="典型技能范围"/>
       <sheetName val="设计约定"/>
@@ -1440,11 +1705,11 @@
       <sheetName val="备用数据"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="A2" t="str">
@@ -1512,10 +1777,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1811,11 +2076,11 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1824,7 +2089,7 @@
     <col min="2" max="2" width="8.88671875" style="27"/>
     <col min="3" max="3" width="16.6640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="91.21875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="68" style="9" customWidth="1"/>
+    <col min="5" max="5" width="68" style="15" customWidth="1"/>
     <col min="6" max="8" width="8.21875" style="9" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="9"/>
   </cols>
@@ -1856,57 +2121,60 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="13" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
+      <c r="D2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" s="13" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
       <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="D3" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="231" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>132</v>
+      <c r="D4" s="29" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>153</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="9" t="s">
         <v>67</v>
       </c>
@@ -1914,17 +2182,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
+    <row r="9" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
       <c r="C9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>122</v>
+      <c r="D9" s="29" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="16" t="s">
         <v>69</v>
       </c>
@@ -1933,7 +2201,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="9" t="s">
         <v>75</v>
       </c>
@@ -1942,108 +2210,112 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="379.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>159</v>
+      <c r="D14" s="29" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-    </row>
-    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B16" s="33"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="33"/>
+    </row>
+    <row r="18" spans="2:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
       <c r="C19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+      <c r="D19" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="14" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
+        <v>155</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
       <c r="C21" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
       <c r="C22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="9" t="s">
+      <c r="D22" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+      <c r="C23" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="340.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
+      <c r="D23" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="340.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="33"/>
       <c r="C24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>162</v>
+        <v>101</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2325,7 @@
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="B18:B19"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2105,7 +2377,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2114,48 +2386,48 @@
       <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="31"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -2170,34 +2442,34 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="36"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
@@ -2206,11 +2478,11 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="37" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2225,7 +2497,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="11" t="s">
         <v>86</v>
       </c>
@@ -2238,7 +2510,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="11" t="s">
         <v>87</v>
       </c>
@@ -2251,7 +2523,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="11" t="s">
         <v>88</v>
       </c>
@@ -2264,7 +2536,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="11" t="s">
         <v>89</v>
       </c>
@@ -2277,7 +2549,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="11" t="s">
         <v>90</v>
       </c>
@@ -2290,7 +2562,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="11" t="s">
         <v>91</v>
       </c>
@@ -2301,7 +2573,7 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="11" t="s">
         <v>92</v>
       </c>
@@ -2312,7 +2584,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11">
         <v>9</v>
@@ -2323,7 +2595,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11">
         <v>10</v>
@@ -2334,7 +2606,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11">
         <v>11</v>
@@ -2345,7 +2617,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="34" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -2365,7 +2637,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="7" t="s">
         <v>95</v>
       </c>
@@ -2383,19 +2655,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="34"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="34"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="34"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="34"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2405,12 +2677,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="36" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
@@ -2418,10 +2690,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="7" t="s">
         <v>19</v>
       </c>
@@ -2429,10 +2701,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
@@ -2440,14 +2712,14 @@
         <v>3</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="34"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2457,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
@@ -2468,10 +2740,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="34" t="s">
         <v>97</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -2483,7 +2755,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="8" t="s">
         <v>45</v>
       </c>
@@ -2493,7 +2765,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="34" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -2508,7 +2780,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="18" t="s">
         <v>99</v>
       </c>
@@ -2518,52 +2790,52 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="34"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="35"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="35"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="35"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="35"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+      <c r="A48" s="35"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="35"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="35"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+      <c r="A51" s="35"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
+      <c r="A52" s="35"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
+      <c r="A53" s="35"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
+      <c r="A54" s="35"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="35"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+      <c r="A56" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2582,7 +2854,7 @@
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A33"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2611,18 +2883,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="33" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
@@ -2631,7 +2903,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
@@ -2640,7 +2912,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="14" t="s">
         <v>43</v>
       </c>
@@ -2649,73 +2921,73 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="33"/>
     </row>
     <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="33"/>
     </row>
     <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="33"/>
     </row>
     <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="33"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="33"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="33"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="33"/>
     </row>
     <row r="15" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="33"/>
     </row>
     <row r="16" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="33"/>
     </row>
     <row r="17" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="33"/>
     </row>
     <row r="18" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="33"/>
     </row>
     <row r="19" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="33"/>
     </row>
     <row r="20" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="33"/>
     </row>
     <row r="21" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="33"/>
     </row>
     <row r="22" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="33"/>
     </row>
     <row r="23" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="33"/>
     </row>
     <row r="24" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A24"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2736,111 +3008,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>154</v>
+      <c r="A2" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
-        <v>156</v>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +3123,7 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A2:A15"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2877,10 +3149,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>79</v>
@@ -2893,131 +3165,131 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>119</v>
+      <c r="A2" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="14" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="B7" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D8" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="E10" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="20" t="s">
-        <v>135</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="42"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="42"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
@@ -3038,7 +3310,7 @@
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B13"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>